--- a/Daymakers/output/pred.xlsx
+++ b/Daymakers/output/pred.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2363,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3623,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -3665,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3854,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -4967,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
